--- a/crm/data/archival/Trd/data/Trd.xlsx
+++ b/crm/data/archival/Trd/data/Trd.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Trd" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja1" sheetId="10" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -235,7 +235,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -869,7 +869,7 @@
     <cellStyle name="60% - Énfasis4" xfId="33" builtinId="44" customBuiltin="1"/>
     <cellStyle name="60% - Énfasis5" xfId="37" builtinId="48" customBuiltin="1"/>
     <cellStyle name="60% - Énfasis6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Buena" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Bueno" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Celda de comprobación" xfId="13" builtinId="23" customBuiltin="1"/>
     <cellStyle name="Celda vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
@@ -894,137 +894,7 @@
     <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="32">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="19">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1493,8 +1363,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A39"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2290,58 +2160,58 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1">
-    <cfRule type="duplicateValues" dxfId="31" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2">
-    <cfRule type="duplicateValues" dxfId="30" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="duplicateValues" dxfId="29" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
-    <cfRule type="duplicateValues" dxfId="28" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="duplicateValues" dxfId="27" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="duplicateValues" dxfId="26" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7">
-    <cfRule type="duplicateValues" dxfId="25" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="duplicateValues" dxfId="24" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10">
-    <cfRule type="duplicateValues" dxfId="23" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="duplicateValues" dxfId="22" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="duplicateValues" dxfId="21" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="duplicateValues" dxfId="20" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13">
-    <cfRule type="duplicateValues" dxfId="19" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14">
-    <cfRule type="duplicateValues" dxfId="18" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15">
-    <cfRule type="duplicateValues" dxfId="17" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17:C18">
-    <cfRule type="duplicateValues" dxfId="16" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16">
-    <cfRule type="duplicateValues" dxfId="13" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C23">
-    <cfRule type="duplicateValues" dxfId="12" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24:C38">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
